--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_08-08.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_08-08.xlsx
@@ -108,15 +108,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_talulaFighter")] If we want to avoid a fight, it's not too late to fall back…
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_talulaFighter")] That won't do. If I don’t step up here, we'll just be leaving our backs wide open to the Ursus Army.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_talulaFighter")] I have to be careful to not take too much damage. It’s the only way. Stand firm. We must stand firm here...
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_talulaFighter")] If we want to avoid a fight, it's not too late to fall back...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_talulaFighter")] That won't do. If I don't step up here, we'll just be leaving our backs wide open to the Ursus Army.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_talulaFighter")] I have to be careful to not take too much damage. It's the only way. Stand firm. We must stand firm here...
 </t>
   </si>
   <si>
